--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13110" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1:H17"/>
 </workbook>
 </file>
@@ -77,15 +77,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>it789124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,56 +36,53 @@
     <t>password</t>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pay_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验金额、支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验充值的金额、支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cardno</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>pay_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验充值的金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,7 +456,7 @@
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,57 +467,54 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>18111111111</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -553,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:H17"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cardno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,18 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -479,18 +472,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="1">
+        <v>18683917194</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2">
+        <v>4.3674212173748101E+18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -502,7 +495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>cardno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683917194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367421217374810000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +448,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,14 +484,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>18683917194</v>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>4.3674212173748101E+18</v>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,11 +78,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18683917194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367421217374810000</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,10 +492,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,19 +457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,19 +480,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -495,19 +506,22 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -517,8 +531,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
